--- a/meta/en/15-2-1.xlsx
+++ b/meta/en/15-2-1.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>1. Indicator information</t>
   </si>
@@ -94,43 +94,94 @@
     <t>8. References and documentation</t>
   </si>
   <si>
-    <t>Goal 15. Protect, restore and promote sustainable use of terrestrial ecosystems, sustainably manage forests, combat desertification, and halt and reverse land degradation and halt biodiversity loss.</t>
+    <t>15. Protect, restore and promote sustainable use of terrestrial ecosystems, sustainably manage forests, combat desertification, and halt and reverse land degradation and halt biodiversity loss</t>
+  </si>
+  <si>
+    <t>The data is available to interested parties on the websites of specialized bodies and official statistics, as well as country reports on biodiversity.</t>
   </si>
   <si>
     <t>15.2 By 2020, promote the implementation of sustainable management of all types of forests, halt deforestation, restore degraded forests and substantially increase afforestation and reforestation globally</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2.1. Progress towards sustainable forest management </t>
-  </si>
-  <si>
-    <t>The State Agency on Environment Protection and Forestry under the KR Government</t>
-  </si>
-  <si>
-    <t>N.S. Baidakova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banatalia@yandex.com </t>
-  </si>
-  <si>
-    <t>0(312) 54-94-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.ecology.gov.kg </t>
-  </si>
-  <si>
-    <t>The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+    <t>15.2.1 Progress towards sustainable forest management</t>
+  </si>
+  <si>
+    <t>SAEPF, Department of Forest Ecosystem Development, State Institution “</t>
+  </si>
+  <si>
+    <t>+996 (312) 54-88-42,  +996 (312) 54-03-99</t>
+  </si>
+  <si>
+    <t>Kyrgyz Forest Management" Zhumaev Nurlan Kadyrovich, Chukumbaev Sabyr Zholochievich"</t>
+  </si>
+  <si>
+    <t>Reforestation in forests of national importance includes: planting and sowing forests; promoting natural regeneration of forests. 
+Also, measures are being taken to create plantings on ravines, gullies, sands and other inconvenient lands, the cultivation and introduction of young trees into the category of valuable tree plantations in forests of national importance, the creation of nurseries of tree and shrub species, the planting of seedlings and cuttings of tree, shrub, fruit and berry and technical breeds in schools. 
+Increase of forests due to reforestation measures. Changing the forest area will allow us to assess the preservation of natural forest ecosystems. The dynamic growth of the indicator shows an adequate policy in the field of forest conservation and enhancement.</t>
+  </si>
+  <si>
+    <t> The rate of net change in forest area per year;
+ Aboveground biomass reserve in forests (t/ha);
+ The share of forest areas located in protected areas;
+ The proportion of forest areas for which there is a long-term forest management plan;
+ Certified forest areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National forest inventory, accounting of the forest fund </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"The SAEPF generates data on the area of reforestation in forests of national importance, including planting and sowing forests, and promoting natural regeneration. 
+The SAEPF collects data based on reports from forestry enterprises, nature parks, and nature reserves by region and summarizes information at the republic level. 
+The NSC collects information from forestry enterprises and other enterprises engaged in forestry work based on the state statistical reporting form "Forestry Work Report".
+The data of the National Forest Inventory of the Kyrgyz Republic were approved by Resolution No. 407 of the Government of the Kyrgyz Republic dated July 26, 11. The second national forest inventory of the Kyrgyz Republic has been launched."</t>
+  </si>
+  <si>
+    <t>The National SDG Reporting Platform of the Kyrgyz Republic: https://sustainabledevelopment-kyrgyzstan .github.io</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,25 +256,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -536,11 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Worksheet____2"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +630,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -568,16 +638,16 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
+      <c r="B3" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,40 +660,36 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,23 +698,27 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -656,17 +726,21 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -674,13 +748,13 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -702,7 +776,9 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -714,14 +790,14 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>34</v>
+      <c r="B26" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
